--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C231D1-F53B-46BD-8DAB-784B3D4A9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29F2469-A48D-4845-ABE4-DC74F075B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="705" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="3510" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +515,34 @@
   </si>
   <si>
     <t>assets\resources\img\rankingview\icon_rank_default.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运宝箱配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\LuckyBox.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Localization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Localization.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1363,7 +1391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>2001</v>
       </c>
@@ -1380,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>2002</v>
       </c>
@@ -1397,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>2003</v>
       </c>
@@ -1414,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2004</v>
       </c>
@@ -1431,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>2005</v>
       </c>
@@ -1448,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>2006</v>
       </c>
@@ -1465,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2007</v>
       </c>
@@ -1482,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>2008</v>
       </c>
@@ -1499,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2009</v>
       </c>
@@ -1516,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>2010</v>
       </c>
@@ -1533,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>2011</v>
       </c>
@@ -1547,6 +1575,48 @@
         <v>124</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>3001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>3002</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29F2469-A48D-4845-ABE4-DC74F075B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F3224-4917-49DF-91B0-775CCE72F40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6330" yWindow="3510" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,22 @@
   </si>
   <si>
     <t>assets\resources\datatables\Localization.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内隐私协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\text\PrivacyAgreement.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivacyAgreement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1620,6 +1636,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>4001</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F3224-4917-49DF-91B0-775CCE72F40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE68AC-CD36-4020-B134-9B454F8E721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6330" yWindow="3510" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,66 @@
   </si>
   <si>
     <t>PrivacyAgreement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_soulgem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂钻图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_coin.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_gem.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_key.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_soulgem.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Currency.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,42 +989,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1595,25 +1655,34 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>125</v>
+      <c r="B44">
+        <v>2012</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>3001</v>
+        <v>2013</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1621,43 +1690,122 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46">
+        <v>2014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>2015</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>3001</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50">
         <v>3002</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>129</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D50" t="s">
         <v>130</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E50" t="s">
         <v>131</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>3003</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>0</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53">
         <v>4001</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C53" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E53" t="s">
         <v>134</v>
       </c>
-      <c r="F48">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE68AC-CD36-4020-B134-9B454F8E721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC88A5-D450-4396-B239-D64FC6C6882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3510" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="390" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="177">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,6 +619,106 @@
   </si>
   <si>
     <t>assets\resources\datatables\Currency.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Level.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钞票美元图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\common\icon_reward_dollar.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_reward_dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_coin_04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_02.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_03.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\img\shopview\shop_img_gem_04.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_coin_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_coin_03</t>
+  </si>
+  <si>
+    <t>shop_img_coin_04</t>
+  </si>
+  <si>
+    <t>shop_img_gem_03</t>
+  </si>
+  <si>
+    <t>shop_img_gem_04</t>
+  </si>
+  <si>
+    <t>shop_img_coin_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_gem_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_img_gem_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Shop.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,16 +1044,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
@@ -1467,7 +1567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>2001</v>
       </c>
@@ -1484,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>2002</v>
       </c>
@@ -1501,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>2003</v>
       </c>
@@ -1518,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2004</v>
       </c>
@@ -1535,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>2005</v>
       </c>
@@ -1552,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>2006</v>
       </c>
@@ -1569,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2007</v>
       </c>
@@ -1586,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>2008</v>
       </c>
@@ -1603,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2009</v>
       </c>
@@ -1620,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>2010</v>
       </c>
@@ -1637,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>2011</v>
       </c>
@@ -1654,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>2012</v>
       </c>
@@ -1671,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>2013</v>
       </c>
@@ -1688,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>2014</v>
       </c>
@@ -1705,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>2015</v>
       </c>
@@ -1722,12 +1822,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>125</v>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2016</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1735,16 +1841,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>3001</v>
+        <v>2017</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1752,16 +1858,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>3002</v>
+        <v>2018</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1769,43 +1875,221 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>3003</v>
+        <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>3001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>3002</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>3003</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>3004</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>3005</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64">
         <v>4001</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C64" t="s">
         <v>135</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D64" t="s">
         <v>133</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E64" t="s">
         <v>134</v>
       </c>
-      <c r="F53">
+      <c r="F64">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC88A5-D450-4396-B239-D64FC6C6882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340FDC-CE34-4F3B-8978-4B6E2157F1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="390" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="2340" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="180">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,6 +719,18 @@
   </si>
   <si>
     <t>assets\resources\datatables\Shop.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Ranking.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2069,27 +2081,44 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>3006</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>0</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B64">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65">
         <v>4001</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>135</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>133</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>134</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340FDC-CE34-4F3B-8978-4B6E2157F1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11682B65-51CB-47AD-ABC4-0A98123C9148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2340" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="3855" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="184">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,22 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assets\scene\GameScene.ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本地化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assets\resources\localization\ChineseSimplified\Default.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,6 +719,34 @@
   </si>
   <si>
     <t>assets\resources\datatables\Ranking.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\scene\MainScene.ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D场景配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Scene3d.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1056,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1165,84 +1181,84 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>501</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1001</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>502</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1250,16 +1266,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1267,16 +1283,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1284,16 +1300,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1301,16 +1317,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1318,16 +1334,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1335,16 +1351,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1352,16 +1368,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1369,16 +1385,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1386,16 +1402,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1403,16 +1419,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1420,16 +1436,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1437,16 +1453,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1454,16 +1470,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1471,16 +1487,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1488,16 +1504,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1505,16 +1521,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1522,16 +1538,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1539,58 +1555,58 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2001</v>
+      </c>
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>1020</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1598,16 +1614,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1615,16 +1631,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1632,16 +1648,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1649,16 +1665,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1666,16 +1682,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1683,16 +1699,16 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1700,16 +1716,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1717,16 +1733,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1734,16 +1750,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1751,16 +1767,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1768,16 +1784,16 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1785,16 +1801,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1802,16 +1818,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1819,16 +1835,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1836,16 +1852,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" t="s">
         <v>154</v>
-      </c>
-      <c r="E48" t="s">
-        <v>155</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1853,16 +1869,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1870,16 +1886,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1887,16 +1903,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1904,16 +1920,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1921,16 +1937,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1938,16 +1954,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1955,49 +1971,49 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <v>2024</v>
-      </c>
-      <c r="C56" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" t="s">
-        <v>164</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>3001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
         <v>125</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C58" t="s">
         <v>126</v>
@@ -2014,16 +2030,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2031,7 +2047,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
@@ -2048,16 +2064,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2065,7 +2081,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C62" t="s">
         <v>174</v>
@@ -2082,16 +2098,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2102,23 +2118,48 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>4001</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>5001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>180</v>
+      </c>
+      <c r="F67">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11682B65-51CB-47AD-ABC4-0A98123C9148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC29C3A-8F98-4AFE-B69A-A1958E83FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="3855" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,22 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChineseSimplified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assets\scene\GameEntry.ls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assets\resources\localization\ChineseSimplified\Default.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assets\resources\localization\English\Default.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assets\resources\datatables\Localization.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各种协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,6 +719,22 @@
   </si>
   <si>
     <t>assets\resources\datatables\Scene3d.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\localization\Localization.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\LocalizationRes.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地化资源配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizationRes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1185,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,55 +1181,55 @@
         <v>501</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>502</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1249,16 +1237,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1266,16 +1254,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1283,16 +1271,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1300,16 +1288,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1317,16 +1305,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1334,16 +1322,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1351,16 +1339,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1368,16 +1356,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1385,16 +1373,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1402,16 +1390,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1419,16 +1407,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1436,16 +1424,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1453,16 +1441,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1470,16 +1458,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1487,16 +1475,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1504,16 +1492,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1521,16 +1509,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1538,58 +1526,58 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>1020</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
+      <c r="B31">
+        <v>2001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1597,16 +1585,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1614,16 +1602,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1631,16 +1619,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1648,16 +1636,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1665,16 +1653,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1682,16 +1670,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1699,16 +1687,16 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1716,16 +1704,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1733,16 +1721,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1750,16 +1738,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1767,16 +1755,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1784,16 +1772,16 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1801,16 +1789,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1818,16 +1806,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1835,16 +1823,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1852,16 +1840,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1869,16 +1857,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1886,16 +1874,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1903,16 +1891,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1920,16 +1908,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1937,16 +1925,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1954,58 +1942,58 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <v>2024</v>
-      </c>
-      <c r="C55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" t="s">
-        <v>162</v>
-      </c>
-      <c r="E55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
+      <c r="B56">
+        <v>3001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2013,16 +2001,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2030,16 +2018,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2047,16 +2035,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2064,16 +2052,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2081,7 +2069,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C62" t="s">
         <v>174</v>
@@ -2097,69 +2085,52 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>3007</v>
-      </c>
-      <c r="C63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" t="s">
-        <v>183</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>4001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>4001</v>
-      </c>
-      <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67">
+      <c r="B66">
         <v>5001</v>
       </c>
-      <c r="C67" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67">
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC29C3A-8F98-4AFE-B69A-A1958E83FAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC18CFF-6D4D-4A50-BE83-087DB27C0301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1905" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,6 +735,122 @@
   </si>
   <si>
     <t>LocalizationRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\zombie\Zombie.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\BusinessMan.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\Pistol.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Player.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Weapon.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Enemy.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\datatables\Bullet.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPlayerView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择人物武器界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\SelectPlayerView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectPlayerScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择人物武器场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\scene\SelectPlayerScene.ls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,17 +1176,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1542,42 +1658,42 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>1021</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>2001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1585,16 +1701,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1602,16 +1718,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1619,16 +1735,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1636,16 +1752,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1653,16 +1769,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1670,16 +1786,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1687,16 +1803,16 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1704,16 +1820,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1721,16 +1837,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1738,16 +1854,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1755,16 +1871,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1772,16 +1888,16 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1789,16 +1905,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1806,16 +1922,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1823,16 +1939,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1840,16 +1956,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1857,16 +1973,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1874,16 +1990,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
         <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1891,16 +2007,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
         <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1908,16 +2024,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
         <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1925,16 +2041,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
         <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1942,58 +2058,58 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
         <v>155</v>
       </c>
       <c r="E54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" t="s">
         <v>154</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>0</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <v>3001</v>
-      </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2001,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2018,16 +2134,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2035,16 +2151,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2052,16 +2168,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2069,68 +2185,242 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62">
+        <v>3006</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63">
         <v>3007</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>174</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>175</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>176</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>122</v>
+      <c r="F63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>4001</v>
+        <v>3008</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>170</v>
+      <c r="B65">
+        <v>3009</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66">
+        <v>3010</v>
+      </c>
+      <c r="C66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>3011</v>
+      </c>
+      <c r="D67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>4001</v>
+      </c>
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71">
         <v>5001</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C71" t="s">
         <v>171</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D71" t="s">
         <v>172</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E71" t="s">
         <v>173</v>
       </c>
-      <c r="F66">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>5002</v>
+      </c>
+      <c r="C72" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" t="s">
+        <v>209</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>6001</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>6101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>6201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
+        <v>190</v>
+      </c>
+      <c r="F78">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC18CFF-6D4D-4A50-BE83-087DB27C0301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB731F4B-0BD4-4982-B981-BB8E101974D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="1905" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="237">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assets\resources\res3d\scene\MainScene.ls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scene3d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,7 +846,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assets\resources\res3d\scene\SelectPlayerScene.ls</t>
+    <t>assets\resources\res3d\prefab\scene\MainScene.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\skybox\Sky_Anime_03_Day_a.lmat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空盒3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\skybox\Sky_Anime_11_morning_a.lmat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\skybox\Sky_LowPoly_01_Day_a.lmat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\scene\SelectPlayerScene.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆弹专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌特工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookiePirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoutRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreatMagician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombDisEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\BombDisEX.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\GreatMagician.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\Kingsman.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\RookiePirate.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\player\ScoutRobot.lh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1295,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1303,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1662,13 +1770,13 @@
         <v>1021</v>
       </c>
       <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
         <v>204</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>205</v>
-      </c>
-      <c r="E30" t="s">
-        <v>206</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2120,13 +2228,13 @@
         <v>3002</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2205,13 +2313,13 @@
         <v>3007</v>
       </c>
       <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
         <v>174</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>175</v>
-      </c>
-      <c r="E63" t="s">
-        <v>176</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2222,13 +2330,13 @@
         <v>3008</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2239,13 +2347,13 @@
         <v>3009</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2256,13 +2364,13 @@
         <v>3010</v>
       </c>
       <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" t="s">
         <v>201</v>
-      </c>
-      <c r="D66" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" t="s">
-        <v>202</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2272,11 +2380,14 @@
       <c r="B67">
         <v>3011</v>
       </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2312,115 +2423,267 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>5001</v>
-      </c>
-      <c r="C71" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" t="s">
-        <v>173</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72">
+        <v>5001</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73">
         <v>5002</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
         <v>207</v>
       </c>
-      <c r="D72" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>0</v>
       </c>
-      <c r="B73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>6001</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" t="s">
-        <v>184</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
+      <c r="B74" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>185</v>
+      <c r="B75">
+        <v>5101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76">
+        <v>5102</v>
+      </c>
+      <c r="C76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>5103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>6001</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B81">
         <v>6101</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>6102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" t="s">
+        <v>232</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>6103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>6104</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>224</v>
+      </c>
+      <c r="E84" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>6105</v>
+      </c>
+      <c r="C85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>6106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86" t="s">
+        <v>235</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
         <v>188</v>
       </c>
-      <c r="D76" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" t="s">
-        <v>186</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>6201</v>
+      </c>
+      <c r="C88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>6201</v>
-      </c>
-      <c r="C78" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" t="s">
-        <v>190</v>
-      </c>
-      <c r="F78">
+      <c r="F88">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB731F4B-0BD4-4982-B981-BB8E101974D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C36C8D-B1DF-42BE-8F46-C833B4B636EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1905" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="250">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,6 +959,57 @@
   </si>
   <si>
     <t>assets\resources\res3d\prefab\player\ScoutRobot.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双管喷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\DoubleBarrel.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\Revolver.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\RPG.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\SMG.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\weapon\WizardStaff.lh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2687,6 +2738,91 @@
         <v>1</v>
       </c>
     </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>6202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" t="s">
+        <v>247</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>6203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" t="s">
+        <v>249</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>6204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" t="s">
+        <v>248</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>6205</v>
+      </c>
+      <c r="C92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" t="s">
+        <v>246</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>6206</v>
+      </c>
+      <c r="C93" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C36C8D-B1DF-42BE-8F46-C833B4B636EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B45289-D185-455F-88E6-B016DFEA2379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="257">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,6 +1010,33 @@
   </si>
   <si>
     <t>assets\resources\res3d\prefab\weapon\WizardStaff.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D场景资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\ground\GrassGround.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrassGround</t>
+  </si>
+  <si>
+    <t>GameScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\scene\GameScene.lh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2520,42 +2547,42 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>5003</v>
+      </c>
+      <c r="C74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>0</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>5101</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2563,83 +2590,83 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77">
+        <v>5102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78">
         <v>5103</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>217</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>215</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>219</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B79">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80">
         <v>6001</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>181</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>182</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>183</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B81">
-        <v>6101</v>
-      </c>
-      <c r="C81" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" t="s">
-        <v>185</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2647,16 +2674,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2664,16 +2691,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2681,16 +2708,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E85" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2698,58 +2725,58 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86">
+        <v>6105</v>
+      </c>
+      <c r="C86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B87">
         <v>6106</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>227</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>226</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>235</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>0</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B88">
-        <v>6201</v>
-      </c>
-      <c r="C88" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" t="s">
-        <v>189</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>6202</v>
+        <v>6201</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2757,16 +2784,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2774,16 +2801,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2791,16 +2818,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2808,18 +2835,60 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93">
+        <v>6205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" t="s">
+        <v>246</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B94">
         <v>6206</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>244</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>241</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>245</v>
       </c>
-      <c r="F93">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>6701</v>
+      </c>
+      <c r="C96" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" t="s">
+        <v>252</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B45289-D185-455F-88E6-B016DFEA2379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE8FE4-E7CF-4616-9162-E3A43939A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="276">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,6 +1037,82 @@
   </si>
   <si>
     <t>assets\resources\res3d\prefab\scene\GameScene.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双管喷子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_DoubleBarrel.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_Pistol.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_Revolver.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_RPG.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_WizardStaff.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\bullet\Bullet_SMG.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_WizardStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_DoubleBarrel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2872,23 +2948,136 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B96">
+        <v>6301</v>
+      </c>
+      <c r="C96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" t="s">
+        <v>265</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>6302</v>
+      </c>
+      <c r="C97" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>6303</v>
+      </c>
+      <c r="C98" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+      <c r="E98" t="s">
+        <v>268</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>6304</v>
+      </c>
+      <c r="C99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" t="s">
+        <v>261</v>
+      </c>
+      <c r="E99" t="s">
+        <v>269</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>6305</v>
+      </c>
+      <c r="C100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" t="s">
+        <v>262</v>
+      </c>
+      <c r="E100" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>6306</v>
+      </c>
+      <c r="C101" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" t="s">
+        <v>264</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>250</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103">
         <v>6701</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C103" t="s">
         <v>253</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D103" t="s">
         <v>252</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E103" t="s">
         <v>251</v>
       </c>
-      <c r="F96">
+      <c r="F103">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE8FE4-E7CF-4616-9162-E3A43939A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D831416-6AA8-435B-9102-FF82A40FA32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="279">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,6 +1113,18 @@
   </si>
   <si>
     <t>Bullet_DoubleBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResurrectionView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\prefab\ResurrectionView.lh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1937,42 +1949,42 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>1022</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>2001</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1980,16 +1992,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1997,16 +2009,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2014,16 +2026,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2031,16 +2043,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2048,16 +2060,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2065,16 +2077,16 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2082,16 +2094,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2099,16 +2111,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2116,16 +2128,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2133,16 +2145,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2150,16 +2162,16 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2167,16 +2179,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2184,16 +2196,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2201,16 +2213,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2218,16 +2230,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2235,16 +2247,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2252,16 +2264,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
         <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2269,16 +2281,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2286,16 +2298,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
         <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2303,16 +2315,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
         <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2320,16 +2332,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
         <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2337,58 +2349,58 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
         <v>155</v>
       </c>
       <c r="E55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
         <v>154</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>0</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>3001</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2396,16 +2408,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2413,16 +2425,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2430,16 +2442,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2447,16 +2459,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2464,16 +2476,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2481,16 +2493,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2498,16 +2510,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2515,16 +2527,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2532,52 +2544,61 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67">
+        <v>3010</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68">
         <v>3011</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>220</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>199</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>202</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70">
         <v>4001</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>125</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>123</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>124</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>209</v>
+      <c r="F70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2585,38 +2606,29 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>5001</v>
-      </c>
-      <c r="C72" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2624,58 +2636,58 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74">
+        <v>5002</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75">
         <v>5003</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>254</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>255</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>256</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>0</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>5101</v>
-      </c>
-      <c r="C76" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2683,83 +2695,83 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78">
+        <v>5102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79">
         <v>5103</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>217</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>215</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>219</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>0</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B80">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B81">
         <v>6001</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>181</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>182</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>183</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>0</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <v>6101</v>
-      </c>
-      <c r="C82" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" t="s">
-        <v>186</v>
-      </c>
-      <c r="E82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E83" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2767,16 +2779,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2784,16 +2796,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2801,16 +2813,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2818,58 +2830,58 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87">
+        <v>6105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>236</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B88">
         <v>6106</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>227</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>226</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>235</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>6201</v>
-      </c>
-      <c r="C89" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" t="s">
-        <v>190</v>
-      </c>
-      <c r="E89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>6202</v>
+        <v>6201</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2877,16 +2889,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2894,16 +2906,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2911,16 +2923,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2928,58 +2940,58 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94">
+        <v>6205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>243</v>
+      </c>
+      <c r="D94" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" t="s">
+        <v>246</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B95">
         <v>6206</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>244</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>241</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>245</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>0</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>6301</v>
-      </c>
-      <c r="C96" t="s">
-        <v>271</v>
-      </c>
-      <c r="D96" t="s">
-        <v>258</v>
-      </c>
-      <c r="E96" t="s">
-        <v>265</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>6302</v>
+        <v>6301</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2987,16 +2999,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>6303</v>
+        <v>6302</v>
       </c>
       <c r="C98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3004,16 +3016,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>6304</v>
+        <v>6303</v>
       </c>
       <c r="C99" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3021,16 +3033,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>6305</v>
+        <v>6304</v>
       </c>
       <c r="C100" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3038,46 +3050,63 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B101">
+        <v>6305</v>
+      </c>
+      <c r="C101" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" t="s">
+        <v>266</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B102">
         <v>6306</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>275</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>263</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>264</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>0</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>250</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B103">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B104">
         <v>6701</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>253</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>252</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>251</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D831416-6AA8-435B-9102-FF82A40FA32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E6757-6CE3-402B-AA08-304939FA61D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="347">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,6 +1125,260 @@
   </si>
   <si>
     <t>assets\resources\prefab\ResurrectionView.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景3</t>
+  </si>
+  <si>
+    <t>背景4</t>
+  </si>
+  <si>
+    <t>背景5</t>
+  </si>
+  <si>
+    <t>背景6</t>
+  </si>
+  <si>
+    <t>背景7</t>
+  </si>
+  <si>
+    <t>背景8</t>
+  </si>
+  <si>
+    <t>bgm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm3</t>
+  </si>
+  <si>
+    <t>bgm4</t>
+  </si>
+  <si>
+    <t>bgm5</t>
+  </si>
+  <si>
+    <t>bgm6</t>
+  </si>
+  <si>
+    <t>bgm7</t>
+  </si>
+  <si>
+    <t>bgm8</t>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Arp.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Crash.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Drumbeat.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Lead.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Pad.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Strings_Filtered.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_1_124bpm_Vocal_Chop.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_4_124bpm_Arp.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_4_124bpm_Reese.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_4_124bpm_Sine_Pad.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\music\PL_3AM_Kit_5_124bpm_Reese_Filtered_2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景9</t>
+  </si>
+  <si>
+    <t>背景10</t>
+  </si>
+  <si>
+    <t>背景11</t>
+  </si>
+  <si>
+    <t>bgm9</t>
+  </si>
+  <si>
+    <t>bgm10</t>
+  </si>
+  <si>
+    <t>bgm11</t>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\countdown.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\DoubleBarrel.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷子射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\Explosion1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\lose.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\Pistol.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\Revolver.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\RPG.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\SMG.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\win.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\WizardStaff.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\zombie1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\zombie2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\zombie3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombie3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\sound\hit.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi't</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1450,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1461,7 +1715,7 @@
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2386,443 +2640,470 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <v>3001</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>3002</v>
+        <v>2501</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>3003</v>
+        <v>2502</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>3004</v>
+        <v>2503</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>3005</v>
+        <v>2504</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>3006</v>
+        <v>2505</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>3007</v>
+        <v>2506</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="E64" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>3008</v>
+        <v>2507</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>3009</v>
+        <v>2508</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>3010</v>
+        <v>2509</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>3011</v>
+        <v>2510</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>122</v>
+      <c r="B69">
+        <v>2511</v>
+      </c>
+      <c r="C69" t="s">
+        <v>313</v>
+      </c>
+      <c r="D69" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <v>4001</v>
-      </c>
-      <c r="C70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>209</v>
+      <c r="B71">
+        <v>2601</v>
+      </c>
+      <c r="C71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>170</v>
+      <c r="B72">
+        <v>2602</v>
+      </c>
+      <c r="C72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" t="s">
+        <v>319</v>
+      </c>
+      <c r="E72" t="s">
+        <v>318</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>5001</v>
+        <v>2603</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>5002</v>
+        <v>2604</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>5003</v>
+        <v>2605</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>210</v>
+      <c r="B76">
+        <v>2606</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>327</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>5101</v>
+        <v>2607</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>5102</v>
+        <v>2608</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>5103</v>
+        <v>2609</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>180</v>
+      <c r="B80">
+        <v>2610</v>
+      </c>
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" t="s">
+        <v>336</v>
+      </c>
+      <c r="E80" t="s">
+        <v>331</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>6001</v>
+        <v>2611</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>337</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>184</v>
+      <c r="B82">
+        <v>2612</v>
+      </c>
+      <c r="C82" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82" t="s">
+        <v>333</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>6101</v>
+        <v>2613</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>343</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>334</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>6102</v>
+        <v>2614</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>6103</v>
-      </c>
-      <c r="C85" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" t="s">
-        <v>233</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>6104</v>
+        <v>3001</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2830,16 +3111,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>6105</v>
+        <v>3002</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="E87" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2847,41 +3128,50 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>6106</v>
+        <v>3003</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>188</v>
+      <c r="B89">
+        <v>3004</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>6201</v>
+        <v>3005</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E90" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2889,16 +3179,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>6202</v>
+        <v>3006</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2906,16 +3196,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>6203</v>
+        <v>3007</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="E92" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2923,16 +3213,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>6204</v>
+        <v>3008</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="D93" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2940,16 +3230,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>6205</v>
+        <v>3009</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -2957,109 +3247,91 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>6206</v>
+        <v>3010</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>257</v>
+      <c r="B96">
+        <v>3011</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" t="s">
+        <v>202</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>6301</v>
-      </c>
-      <c r="C97" t="s">
-        <v>271</v>
-      </c>
-      <c r="D97" t="s">
-        <v>258</v>
-      </c>
-      <c r="E97" t="s">
-        <v>265</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>6302</v>
+        <v>4001</v>
       </c>
       <c r="C98" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <v>6303</v>
-      </c>
-      <c r="C99" t="s">
-        <v>273</v>
-      </c>
-      <c r="D99" t="s">
-        <v>260</v>
-      </c>
-      <c r="E99" t="s">
-        <v>268</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <v>6304</v>
-      </c>
-      <c r="C100" t="s">
-        <v>270</v>
-      </c>
-      <c r="D100" t="s">
-        <v>261</v>
-      </c>
-      <c r="E100" t="s">
-        <v>269</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>6305</v>
+        <v>5001</v>
       </c>
       <c r="C101" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="E101" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3067,46 +3339,477 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102">
+        <v>5002</v>
+      </c>
+      <c r="C102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" t="s">
+        <v>221</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>5003</v>
+      </c>
+      <c r="C103" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" t="s">
+        <v>256</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>5101</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>5102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>5103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" t="s">
+        <v>219</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>6001</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" t="s">
+        <v>182</v>
+      </c>
+      <c r="E109" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>6101</v>
+      </c>
+      <c r="C111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111" t="s">
+        <v>186</v>
+      </c>
+      <c r="E111" t="s">
+        <v>185</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>6102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>6103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" t="s">
+        <v>223</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>6104</v>
+      </c>
+      <c r="C114" t="s">
+        <v>229</v>
+      </c>
+      <c r="D114" t="s">
+        <v>224</v>
+      </c>
+      <c r="E114" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>6105</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" t="s">
+        <v>225</v>
+      </c>
+      <c r="E115" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>6106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" t="s">
+        <v>235</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>6201</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>6202</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" t="s">
+        <v>237</v>
+      </c>
+      <c r="E119" t="s">
+        <v>247</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>6203</v>
+      </c>
+      <c r="C120" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" t="s">
+        <v>249</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>6204</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" t="s">
+        <v>248</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>6205</v>
+      </c>
+      <c r="C122" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" t="s">
+        <v>240</v>
+      </c>
+      <c r="E122" t="s">
+        <v>246</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>6206</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" t="s">
+        <v>245</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>6301</v>
+      </c>
+      <c r="C125" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" t="s">
+        <v>265</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>6302</v>
+      </c>
+      <c r="C126" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" t="s">
+        <v>259</v>
+      </c>
+      <c r="E126" t="s">
+        <v>267</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>6303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" t="s">
+        <v>268</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>6304</v>
+      </c>
+      <c r="C128" t="s">
+        <v>270</v>
+      </c>
+      <c r="D128" t="s">
+        <v>261</v>
+      </c>
+      <c r="E128" t="s">
+        <v>269</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>6305</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" t="s">
+        <v>266</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B130">
         <v>6306</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C130" t="s">
         <v>275</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D130" t="s">
         <v>263</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E130" t="s">
         <v>264</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
         <v>250</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B104">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B132">
         <v>6701</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C132" t="s">
         <v>253</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D132" t="s">
         <v>252</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E132" t="s">
         <v>251</v>
       </c>
-      <c r="F104">
+      <c r="F132">
         <v>1</v>
       </c>
     </row>

--- a/assets/resources/datatables/AssetsPath.xlsx
+++ b/assets/resources/datatables/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E6757-6CE3-402B-AA08-304939FA61D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF1220-2328-4B5D-A7D1-B63ED34635E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="351">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1379,6 +1379,22 @@
   </si>
   <si>
     <t>hi't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets\resources\res3d\prefab\vfx\Explode1.lh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explode1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1704,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3813,6 +3829,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>6801</v>
+      </c>
+      <c r="C134" t="s">
+        <v>350</v>
+      </c>
+      <c r="D134" t="s">
+        <v>348</v>
+      </c>
+      <c r="E134" t="s">
+        <v>349</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
